--- a/Documentação/Excel/Planilha_de_Riscos_Atualizada.xlsx
+++ b/Documentação/Excel/Planilha_de_Riscos_Atualizada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis Fernando\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Novo_git_pj\SenSolutions\Documentação\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9032D11F-FB99-4B89-B4EA-3CA91E775137}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC23C67C-4E76-4A53-B4AA-0BACDDBC1A37}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -111,10 +111,6 @@
     <t>Fazer treinamentos para melhorar a qualificação da equipe</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Fazer melhor planejamento das atividades previstas em sprints para não ocorrer atrasos</t>
-  </si>
-  <si>
     <t>Imediato</t>
   </si>
   <si>
@@ -123,12 +119,15 @@
   <si>
     <t>2 dias</t>
   </si>
+  <si>
+    <t>Fazer melhor planejamento das atividades previstas em sprints para não ocorrer atrasos</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -145,25 +144,32 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Panton Light Caps"/>
       <family val="3"/>
       <charset val="238"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
       <name val="Panton Light Caps"/>
       <family val="3"/>
       <charset val="238"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
+      <sz val="16"/>
       <name val="Panton Light Caps"/>
       <family val="3"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -268,75 +274,82 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -660,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -671,10 +684,10 @@
     <col min="4" max="4" width="6" customWidth="1"/>
     <col min="5" max="5" width="14.875" customWidth="1"/>
     <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="16.25" customWidth="1"/>
+    <col min="7" max="7" width="19.375" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="4.375" customWidth="1"/>
-    <col min="10" max="10" width="20.375" customWidth="1"/>
+    <col min="9" max="9" width="15.75" customWidth="1"/>
+    <col min="10" max="10" width="30" customWidth="1"/>
     <col min="11" max="11" width="14.375" customWidth="1"/>
     <col min="12" max="12" width="18.25" customWidth="1"/>
     <col min="13" max="13" width="30.625" customWidth="1"/>
@@ -684,39 +697,39 @@
     <col min="17" max="26" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:26" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="15" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="15" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="15" t="s">
+      <c r="M1" s="8"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="17"/>
+      <c r="P1" s="9"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -728,39 +741,39 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20">
+    <row r="2" spans="1:26" ht="78.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="9" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="21" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="8">
+      <c r="I2" s="16"/>
+      <c r="J2" s="17">
         <v>3</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="9" t="s">
-        <v>30</v>
+      <c r="M2" s="19"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="12" t="s">
+        <v>29</v>
       </c>
-      <c r="P2" s="7"/>
+      <c r="P2" s="14"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -772,39 +785,39 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="20">
+    <row r="3" spans="1:26" ht="80.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="9" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="21" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="8">
+      <c r="I3" s="16"/>
+      <c r="J3" s="17">
         <v>6</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="26"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="7"/>
+      <c r="P3" s="14"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -816,39 +829,39 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="20">
+    <row r="4" spans="1:26" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="11" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="21" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="8">
+      <c r="I4" s="16"/>
+      <c r="J4" s="17">
         <v>6</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="9" t="s">
+      <c r="M4" s="19"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="7"/>
+      <c r="P4" s="14"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -860,39 +873,39 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="20">
+    <row r="5" spans="1:26" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="9" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="23" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="8">
+      <c r="I5" s="22"/>
+      <c r="J5" s="17">
         <v>2</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="9" t="s">
-        <v>31</v>
+      <c r="M5" s="19"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="12" t="s">
+        <v>30</v>
       </c>
-      <c r="P5" s="7"/>
+      <c r="P5" s="14"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
@@ -904,39 +917,39 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20">
+    <row r="6" spans="1:26" ht="68.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="9" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="25" t="s">
+      <c r="G6" s="14"/>
+      <c r="H6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="8">
+      <c r="I6" s="24"/>
+      <c r="J6" s="17">
         <v>2</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="9" t="s">
-        <v>32</v>
+      <c r="M6" s="19"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="12" t="s">
+        <v>31</v>
       </c>
-      <c r="P6" s="7"/>
+      <c r="P6" s="14"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -1037,6 +1050,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
+      <c r="R11" s="25"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -18844,6 +18858,23 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="O4:P4"/>
@@ -18857,23 +18888,6 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
